--- a/Sujeto_5/Carbohidrates.xlsx
+++ b/Sujeto_5/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9877B6-A245-A747-8B2D-C47AFA9C1241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11585B82-BF03-9C42-A78C-FB04BBBF967D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>40.8</t>
+  </si>
+  <si>
+    <t>209.9</t>
+  </si>
+  <si>
+    <t>45.4</t>
+  </si>
+  <si>
+    <t>105.8</t>
+  </si>
+  <si>
+    <t>31.7</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>44.2</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>75.2</t>
+  </si>
+  <si>
+    <t>87.8</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>44.6</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>57.5</t>
+  </si>
+  <si>
+    <t>166.3</t>
+  </si>
+  <si>
+    <t>77.8</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>81.2</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>69.9</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>118.8</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>97.7</t>
+  </si>
+  <si>
+    <t>46.2</t>
+  </si>
+  <si>
+    <t>97.6</t>
+  </si>
+  <si>
+    <t>77.7</t>
   </si>
 </sst>
 </file>
@@ -434,10 +518,13 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -451,72 +538,72 @@
       <c r="A2" s="2">
         <v>44274.614583333343</v>
       </c>
-      <c r="B2">
-        <v>26.9</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44274.645833333343</v>
       </c>
-      <c r="B3">
-        <v>40.799999999999997</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44274.878472222219</v>
       </c>
-      <c r="B4">
-        <v>209.9</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44275.4375</v>
       </c>
-      <c r="B5">
-        <v>45.4</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44275.576388888891</v>
       </c>
-      <c r="B6">
-        <v>105.8</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44275.618055555547</v>
       </c>
-      <c r="B7">
-        <v>31.7</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44275.767361111109</v>
       </c>
-      <c r="B8">
-        <v>54.3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44275.770833333343</v>
       </c>
-      <c r="B9">
-        <v>44.2</v>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44275.958333333343</v>
       </c>
-      <c r="B10">
-        <v>36.900000000000013</v>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -531,88 +618,88 @@
       <c r="A12" s="2">
         <v>44276.493055555547</v>
       </c>
-      <c r="B12">
-        <v>75.2</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44276.673611111109</v>
       </c>
-      <c r="B13">
-        <v>87.8</v>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44276.9375</v>
       </c>
-      <c r="B14">
-        <v>44.1</v>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44276.972222222219</v>
       </c>
-      <c r="B15">
-        <v>44.6</v>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44277.375</v>
       </c>
-      <c r="B16">
-        <v>33.700000000000003</v>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44277.559027777781</v>
       </c>
-      <c r="B17">
-        <v>57.5</v>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44277.567361111112</v>
       </c>
-      <c r="B18">
-        <v>166.3</v>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44277.729166666657</v>
       </c>
-      <c r="B19">
-        <v>77.8</v>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44277.8125</v>
       </c>
-      <c r="B20">
-        <v>27.5</v>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44277.95</v>
       </c>
-      <c r="B21">
-        <v>81.2</v>
+      <c r="B21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44278.368055555547</v>
       </c>
-      <c r="B22">
-        <v>31.3</v>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,40 +714,40 @@
       <c r="A24" s="2">
         <v>44278.524305555547</v>
       </c>
-      <c r="B24">
-        <v>27.5</v>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44278.541666666657</v>
       </c>
-      <c r="B25">
-        <v>69.899999999999991</v>
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44278.666666666657</v>
       </c>
-      <c r="B26">
-        <v>44.2</v>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44278.822916666657</v>
       </c>
-      <c r="B27">
-        <v>7.8</v>
+      <c r="B27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44278.823611111111</v>
       </c>
-      <c r="B28">
-        <v>118.8</v>
+      <c r="B28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,8 +762,8 @@
       <c r="A30" s="2">
         <v>44278.833333333343</v>
       </c>
-      <c r="B30">
-        <v>21.6</v>
+      <c r="B30" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,32 +778,32 @@
       <c r="A32" s="2">
         <v>44278.881944444453</v>
       </c>
-      <c r="B32">
-        <v>97.7</v>
+      <c r="B32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44279.527777777781</v>
       </c>
-      <c r="B33">
-        <v>46.2</v>
+      <c r="B33" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44279.552083333343</v>
       </c>
-      <c r="B34">
-        <v>97.6</v>
+      <c r="B34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44279.767361111109</v>
       </c>
-      <c r="B35">
-        <v>77.7</v>
+      <c r="B35" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Sujeto_5/Carbohidrates.xlsx
+++ b/Sujeto_5/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11585B82-BF03-9C42-A78C-FB04BBBF967D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFDB52C-6AE9-4E44-A283-76D95883EF1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
     <t>36.9</t>
   </si>
   <si>
+    <t>42.0</t>
+  </si>
+  <si>
     <t>75.2</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>31.3</t>
   </si>
   <si>
+    <t>47.0</t>
+  </si>
+  <si>
     <t>69.9</t>
   </si>
   <si>
@@ -97,7 +103,13 @@
     <t>118.8</t>
   </si>
   <si>
+    <t>36.0</t>
+  </si>
+  <si>
     <t>21.6</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
   <si>
     <t>97.7</t>
@@ -517,9 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -610,8 +620,8 @@
       <c r="A11" s="2">
         <v>44276.409722222219</v>
       </c>
-      <c r="B11">
-        <v>42</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +629,7 @@
         <v>44276.493055555547</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +637,7 @@
         <v>44276.673611111109</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +645,7 @@
         <v>44276.9375</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +653,7 @@
         <v>44276.972222222219</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +661,7 @@
         <v>44277.375</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +669,7 @@
         <v>44277.559027777781</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +677,7 @@
         <v>44277.567361111112</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +685,7 @@
         <v>44277.729166666657</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +693,7 @@
         <v>44277.8125</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +701,7 @@
         <v>44277.95</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,15 +709,15 @@
         <v>44278.368055555547</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44278.489583333343</v>
       </c>
-      <c r="B23">
-        <v>47</v>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +725,7 @@
         <v>44278.524305555547</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +733,7 @@
         <v>44278.541666666657</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +749,7 @@
         <v>44278.822916666657</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,15 +757,15 @@
         <v>44278.823611111111</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44278.826388888891</v>
       </c>
-      <c r="B29">
-        <v>36</v>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,15 +773,15 @@
         <v>44278.833333333343</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44278.84375</v>
       </c>
-      <c r="B31">
-        <v>6</v>
+      <c r="B31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,7 +789,7 @@
         <v>44278.881944444453</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,7 +797,7 @@
         <v>44279.527777777781</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +805,7 @@
         <v>44279.552083333343</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +813,7 @@
         <v>44279.767361111109</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
